--- a/excels/Battle of Bands.xlsx
+++ b/excels/Battle of Bands.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -418,15 +418,545 @@
       <c r="E1" t="str">
         <v>Mobile</v>
       </c>
+      <c r="F1" t="str">
+        <v>teamName</v>
+      </c>
+      <c r="G1" t="str">
+        <v>members</v>
+      </c>
+      <c r="H1" t="str">
+        <v>Payment Done</v>
+      </c>
     </row>
     <row r="2">
+      <c r="A2" t="str">
+        <v>The fine band</v>
+      </c>
+      <c r="B2" t="str">
+        <v>fineband336@gmail.com</v>
+      </c>
+      <c r="D2" t="str">
+        <v>BlitzThe69</v>
+      </c>
       <c r="E2" t="str">
         <v>8302682008</v>
       </c>
+      <c r="F2" t="str">
+        <v>The fine band</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>Krithik Mohan</v>
+      </c>
+      <c r="B3" t="str">
+        <v>2021ume1095@mnit.ac.in</v>
+      </c>
+      <c r="C3" t="str">
+        <v>2021UME1095</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Blitz-Kri-244</v>
+      </c>
+      <c r="E3" t="str">
+        <v>+919993511178</v>
+      </c>
+      <c r="F3" t="str">
+        <v>Primal Symphony</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Jitesh yadav</v>
+      </c>
+      <c r="B4" t="str">
+        <v>2022uee1129@mnit.ac.in</v>
+      </c>
+      <c r="C4" t="str">
+        <v>2022uee1129</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Blitz-Jit-1501</v>
+      </c>
+      <c r="E4" t="str">
+        <v>7463804331</v>
+      </c>
+      <c r="F4" t="str">
+        <v>None</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v xml:space="preserve">Aryan Pingoliya </v>
+      </c>
+      <c r="B5" t="str">
+        <v>2022ucp1499@mnit.ac.in</v>
+      </c>
+      <c r="C5" t="str">
+        <v>2022ucp1499</v>
+      </c>
+      <c r="D5" t="str">
+        <v>Blitz-Ary-1659</v>
+      </c>
+      <c r="E5" t="str">
+        <v>9079617658</v>
+      </c>
+      <c r="F5" t="str">
+        <v>None</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Sanjay Yadav</v>
+      </c>
+      <c r="B6" t="str">
+        <v>2022umt1744@mnit.ac.in</v>
+      </c>
+      <c r="C6" t="str">
+        <v>2022umt1744</v>
+      </c>
+      <c r="D6" t="str">
+        <v>Blitz-San-1044</v>
+      </c>
+      <c r="E6" t="str">
+        <v>6377366045</v>
+      </c>
+      <c r="F6" t="str">
+        <v>NONE</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Shailendra Mandal</v>
+      </c>
+      <c r="B7" t="str">
+        <v>2022ucp1898@mnit.ac.in</v>
+      </c>
+      <c r="C7" t="str">
+        <v>2022UCP1898</v>
+      </c>
+      <c r="D7" t="str">
+        <v>Blitz-Sha-1538</v>
+      </c>
+      <c r="E7" t="str">
+        <v>7665760398</v>
+      </c>
+      <c r="F7" t="str">
+        <v>NONE</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Yash Gupta</v>
+      </c>
+      <c r="B8" t="str">
+        <v>gyash.music@gmail.com</v>
+      </c>
+      <c r="C8" t="str">
+        <v>660152</v>
+      </c>
+      <c r="D8" t="str">
+        <v>BlitzYash1911</v>
+      </c>
+      <c r="E8" t="str">
+        <v>7688996469</v>
+      </c>
+      <c r="F8" t="str">
+        <v>Band PYASA</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Nakshatra singh</v>
+      </c>
+      <c r="B9" t="str">
+        <v>nakshatras429@gmail.com</v>
+      </c>
+      <c r="C9" t="str">
+        <v>miet</v>
+      </c>
+      <c r="D9" t="str">
+        <v>BlitzNaks1973</v>
+      </c>
+      <c r="E9" t="str">
+        <v>07300903789</v>
+      </c>
+      <c r="F9" t="str">
+        <v>the quarter note</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Gautam Khandelwal</v>
+      </c>
+      <c r="B10" t="str">
+        <v>gkhandelwal9587@gmail.com</v>
+      </c>
+      <c r="C10" t="str">
+        <v>660236</v>
+      </c>
+      <c r="D10" t="str">
+        <v>BlitzGaut1995</v>
+      </c>
+      <c r="E10" t="str">
+        <v>9587443042</v>
+      </c>
+      <c r="F10" t="str">
+        <v>Band PYASA</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Aatmik Gupta</v>
+      </c>
+      <c r="B11" t="str">
+        <v>aatmikgupta2004@gmail.com</v>
+      </c>
+      <c r="C11" t="str">
+        <v>3010004</v>
+      </c>
+      <c r="D11" t="str">
+        <v>BlitzAatm2003</v>
+      </c>
+      <c r="E11" t="str">
+        <v>9828548028</v>
+      </c>
+      <c r="F11" t="str">
+        <v>Band PYASA</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v xml:space="preserve">Ranveer Singh </v>
+      </c>
+      <c r="B12" t="str">
+        <v>ritusainiritusaini430@gmail.com</v>
+      </c>
+      <c r="C12" t="str">
+        <v>10967</v>
+      </c>
+      <c r="D12" t="str">
+        <v>BlitzRanv2016</v>
+      </c>
+      <c r="E12" t="str">
+        <v>8441900164</v>
+      </c>
+      <c r="F12" t="str">
+        <v>Band PYASA</v>
+      </c>
+      <c r="G12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v xml:space="preserve">Ankit Hanotia </v>
+      </c>
+      <c r="B13" t="str">
+        <v>2022UCP1592@mnit.ac.in</v>
+      </c>
+      <c r="C13" t="str">
+        <v>2022UCP1592</v>
+      </c>
+      <c r="D13" t="str">
+        <v>Blitz-Ank-1322</v>
+      </c>
+      <c r="E13" t="str">
+        <v>9351078844</v>
+      </c>
+      <c r="F13" t="str">
+        <v>None</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>chetan tyagi</v>
+      </c>
+      <c r="B14" t="str">
+        <v>chaitanyatyagi1540@gmail.com</v>
+      </c>
+      <c r="C14" t="str">
+        <v>Xyz</v>
+      </c>
+      <c r="D14" t="str">
+        <v>Blitzchet149</v>
+      </c>
+      <c r="E14" t="str">
+        <v>7804002781</v>
+      </c>
+      <c r="F14" t="str">
+        <v>none</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>Raghav Agrawal</v>
+      </c>
+      <c r="B15" t="str">
+        <v>2021uce1545@mnit.ac.in</v>
+      </c>
+      <c r="C15" t="str">
+        <v>2021UCE1545</v>
+      </c>
+      <c r="D15" t="str">
+        <v>Blitz-Rag-267</v>
+      </c>
+      <c r="E15" t="str">
+        <v>6350036413</v>
+      </c>
+      <c r="F15" t="str">
+        <v>Evangeline</v>
+      </c>
+      <c r="G15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v xml:space="preserve">Ayush Mittal </v>
+      </c>
+      <c r="B16" t="str">
+        <v>2021umt1741@mnit.ac.in</v>
+      </c>
+      <c r="C16" t="str">
+        <v>2021umt1741</v>
+      </c>
+      <c r="D16" t="str">
+        <v>Blitz-Ayu-1820</v>
+      </c>
+      <c r="E16" t="str">
+        <v>9460837525</v>
+      </c>
+      <c r="F16" t="str">
+        <v>Evangeline</v>
+      </c>
+      <c r="G16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>Lokesh Kumar Suthar</v>
+      </c>
+      <c r="B17" t="str">
+        <v>2022ume1730@mnit.ac.in</v>
+      </c>
+      <c r="C17" t="str">
+        <v>2022UME1730</v>
+      </c>
+      <c r="D17" t="str">
+        <v>Blitz-Lok-1471</v>
+      </c>
+      <c r="E17" t="str">
+        <v>7627077698</v>
+      </c>
+      <c r="F17" t="str">
+        <v>Evangeline</v>
+      </c>
+      <c r="G17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v xml:space="preserve">Aayush Sarraff </v>
+      </c>
+      <c r="B18" t="str">
+        <v>2022uee1924@mnit.ac.in</v>
+      </c>
+      <c r="C18" t="str">
+        <v>2022UEE1924</v>
+      </c>
+      <c r="D18" t="str">
+        <v>Blitz-Aay-2022</v>
+      </c>
+      <c r="E18" t="str">
+        <v>8307339932</v>
+      </c>
+      <c r="F18" t="str">
+        <v>Evangeline</v>
+      </c>
+      <c r="G18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>Shubh Chordia</v>
+      </c>
+      <c r="B19" t="str">
+        <v>2022uee1016@mnit.ac.in</v>
+      </c>
+      <c r="C19" t="str">
+        <v>2022uee1016</v>
+      </c>
+      <c r="D19" t="str">
+        <v>Blitz-Shu-2202</v>
+      </c>
+      <c r="E19" t="str">
+        <v>8003875103</v>
+      </c>
+      <c r="F19" t="str">
+        <v xml:space="preserve">Evangeline </v>
+      </c>
+      <c r="G19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>Praneeb Shrestha</v>
+      </c>
+      <c r="B20" t="str">
+        <v>2022uar1903@mnit.ac.in</v>
+      </c>
+      <c r="C20" t="str">
+        <v>2022UAR1903</v>
+      </c>
+      <c r="D20" t="str">
+        <v>Blitz-Pra-1013</v>
+      </c>
+      <c r="E20" t="str">
+        <v>9928898716</v>
+      </c>
+      <c r="F20" t="str">
+        <v xml:space="preserve">Evangeline </v>
+      </c>
+      <c r="G20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>Priyanshu Karkhur</v>
+      </c>
+      <c r="B21" t="str">
+        <v>2019ume1366@mnit.ac.in</v>
+      </c>
+      <c r="C21" t="str">
+        <v>2019ume1366</v>
+      </c>
+      <c r="D21" t="str">
+        <v>Blitz-Pri-2377</v>
+      </c>
+      <c r="E21" t="str">
+        <v>7470320477</v>
+      </c>
+      <c r="F21" t="str">
+        <v>Black Ace</v>
+      </c>
+      <c r="G21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>Saksham Sharma</v>
+      </c>
+      <c r="B22" t="str">
+        <v>2021uar1180@mnit.ac.in</v>
+      </c>
+      <c r="C22" t="str">
+        <v>2021uar1180</v>
+      </c>
+      <c r="D22" t="str">
+        <v>Blitz-Sak-2385</v>
+      </c>
+      <c r="E22" t="str">
+        <v>7857574587</v>
+      </c>
+      <c r="F22" t="str">
+        <v>Black Ace</v>
+      </c>
+      <c r="G22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>Yogesh kumar</v>
+      </c>
+      <c r="B23" t="str">
+        <v>2021par5450@mnit.ac.in</v>
+      </c>
+      <c r="C23" t="str">
+        <v>2021par5450</v>
+      </c>
+      <c r="D23" t="str">
+        <v>Blitz-Yog-2401</v>
+      </c>
+      <c r="E23" t="str">
+        <v>9736468104</v>
+      </c>
+      <c r="F23" t="str">
+        <v>Black Ace</v>
+      </c>
+      <c r="G23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>Vishal singh</v>
+      </c>
+      <c r="B24" t="str">
+        <v>2021UAR1174@mnit.ac.in</v>
+      </c>
+      <c r="C24" t="str">
+        <v>2021UAR1174</v>
+      </c>
+      <c r="D24" t="str">
+        <v>Blitz-Vis-416</v>
+      </c>
+      <c r="E24" t="str">
+        <v>8306709908</v>
+      </c>
+      <c r="F24" t="str">
+        <v>Black Ace</v>
+      </c>
+      <c r="G24">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H24"/>
   </ignoredErrors>
 </worksheet>
 </file>